--- a/attenuation_model/doc/拟合结果对比.xlsx
+++ b/attenuation_model/doc/拟合结果对比.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BlueTooth\pos_bluetooth_matlab\attenuation_model\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F492B2-471A-42C0-9E0D-74E990C74BFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA28F1-3925-4FF1-AE56-04EF1485524F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1950" windowWidth="16500" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2295" windowWidth="19230" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -165,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +184,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,26 +488,26 @@
     <col min="7" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
